--- a/KintoBackup/【交通】劉春杉.xlsx
+++ b/KintoBackup/【交通】劉春杉.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LIUCHUNSHAN/Desktop/Sam/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LIUCHUNSHAN/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB71A0A-3131-5A47-B5D8-D3DE0E19FDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6920C72B-7057-BD49-A0F7-2816D84122CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="15960" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="15960" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="経費サンプル" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>　　　　　　　　氏名：　劉春杉</t>
   </si>
@@ -70,10 +68,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　2021　年　12　月分経費</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>新高島平</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">シン </t>
@@ -85,6 +79,10 @@
   </si>
   <si>
     <t>新高島平</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　2022　年　1　月分経費</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -238,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,6 +290,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1501,7 +1500,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.25" customHeight="1"/>
@@ -1516,7 +1515,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.25" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1586,11 +1585,11 @@
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1">
       <c r="A9" s="11">
-        <v>44532</v>
+        <v>44566</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>8</v>
@@ -1601,11 +1600,11 @@
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1">
       <c r="A10" s="11">
-        <v>44533</v>
+        <v>44567</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>7</v>
@@ -1616,11 +1615,11 @@
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1">
       <c r="A11" s="11">
-        <v>44536</v>
+        <v>44571</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>7</v>
@@ -1631,13 +1630,13 @@
     </row>
     <row r="12" spans="1:5" ht="21" customHeight="1">
       <c r="A12" s="14">
-        <v>44537</v>
+        <v>44572</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="13">
@@ -1646,13 +1645,13 @@
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1">
       <c r="A13" s="14">
-        <v>44543</v>
+        <v>44578</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="13">
@@ -1660,14 +1659,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" customHeight="1">
-      <c r="A14" s="14">
-        <v>44544</v>
+      <c r="A14" s="27">
+        <v>44579</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="13">
@@ -1676,13 +1675,13 @@
     </row>
     <row r="15" spans="1:5" ht="21" customHeight="1">
       <c r="A15" s="14">
-        <v>44550</v>
+        <v>44585</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="13">
@@ -1691,13 +1690,13 @@
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
       <c r="A16" s="14">
-        <v>44551</v>
+        <v>44586</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="13">
@@ -1705,19 +1704,11 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1">
-      <c r="A17" s="14">
-        <v>44557</v>
-      </c>
+      <c r="A17" s="14"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1000</v>
-      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1">
       <c r="A18" s="14"/>
@@ -1784,7 +1775,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="19">
         <f>SUM(E9:E25)</f>
-        <v>9000</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1789,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26 E9:E17 E19:E21">
+  <conditionalFormatting sqref="E26 E19:E21 E9:E17">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/KintoBackup/【交通】劉春杉.xlsx
+++ b/KintoBackup/【交通】劉春杉.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LIUCHUNSHAN/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LIUCHUNSHAN/Desktop/Sam/TechnologyStack/KintoBackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6920C72B-7057-BD49-A0F7-2816D84122CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45742B2-2980-7746-AAB6-117D288A635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="15960" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="500" windowWidth="15960" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="経費サンプル" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>　　　　　　　　氏名：　劉春杉</t>
   </si>
@@ -82,7 +82,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　2022　年　1　月分経費</t>
+    <t>　　　2022　年　2　月分経費</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -272,6 +272,7 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -290,12 +291,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1500,7 +1505,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.25" customHeight="1"/>
@@ -1514,13 +1519,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.25" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="16.25" customHeight="1">
       <c r="A2" s="2"/>
@@ -1552,12 +1557,12 @@
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" ht="14.5" customHeight="1">
       <c r="A7" s="6"/>
@@ -1585,7 +1590,7 @@
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1">
       <c r="A9" s="11">
-        <v>44566</v>
+        <v>44593</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="20" t="s">
@@ -1600,7 +1605,7 @@
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1">
       <c r="A10" s="11">
-        <v>44567</v>
+        <v>44594</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="20" t="s">
@@ -1615,7 +1620,7 @@
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1">
       <c r="A11" s="11">
-        <v>44571</v>
+        <v>44599</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="20" t="s">
@@ -1630,7 +1635,7 @@
     </row>
     <row r="12" spans="1:5" ht="21" customHeight="1">
       <c r="A12" s="14">
-        <v>44572</v>
+        <v>44600</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="20" t="s">
@@ -1645,7 +1650,7 @@
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1">
       <c r="A13" s="14">
-        <v>44578</v>
+        <v>44606</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="20" t="s">
@@ -1659,8 +1664,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" customHeight="1">
-      <c r="A14" s="27">
-        <v>44579</v>
+      <c r="A14" s="21">
+        <v>44607</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="20" t="s">
@@ -1675,7 +1680,7 @@
     </row>
     <row r="15" spans="1:5" ht="21" customHeight="1">
       <c r="A15" s="14">
-        <v>44585</v>
+        <v>44613</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="20" t="s">
@@ -1690,7 +1695,7 @@
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
       <c r="A16" s="14">
-        <v>44586</v>
+        <v>44614</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="20" t="s">
@@ -1704,11 +1709,19 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>44620</v>
+      </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="13"/>
+      <c r="C17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1">
       <c r="A18" s="14"/>
@@ -1775,7 +1788,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="19">
         <f>SUM(E9:E25)</f>
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
@@ -1785,16 +1798,21 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="E8 E22:E25">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26 E19:E21 E9:E17">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E26 E19:E21 E9:E16">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/KintoBackup/【交通】劉春杉.xlsx
+++ b/KintoBackup/【交通】劉春杉.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LIUCHUNSHAN/Desktop/Sam/TechnologyStack/KintoBackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45742B2-2980-7746-AAB6-117D288A635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5433ECA-0336-E243-9B46-BA0B0C063D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="500" windowWidth="15960" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10560" yWindow="500" windowWidth="15960" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="経費サンプル" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>　　　　　　　　氏名：　劉春杉</t>
   </si>
@@ -82,7 +82,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　2022　年　2　月分経費</t>
+    <t>　　　2022　年　3　月分経費</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -295,7 +295,12 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1505,7 +1510,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.25" customHeight="1"/>
@@ -1590,7 +1595,7 @@
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1">
       <c r="A9" s="11">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="20" t="s">
@@ -1605,7 +1610,7 @@
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1">
       <c r="A10" s="11">
-        <v>44594</v>
+        <v>44622</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="20" t="s">
@@ -1620,7 +1625,7 @@
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1">
       <c r="A11" s="11">
-        <v>44599</v>
+        <v>44627</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="20" t="s">
@@ -1635,7 +1640,7 @@
     </row>
     <row r="12" spans="1:5" ht="21" customHeight="1">
       <c r="A12" s="14">
-        <v>44600</v>
+        <v>44628</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="20" t="s">
@@ -1650,7 +1655,7 @@
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1">
       <c r="A13" s="14">
-        <v>44606</v>
+        <v>44634</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="20" t="s">
@@ -1665,7 +1670,7 @@
     </row>
     <row r="14" spans="1:5" ht="21" customHeight="1">
       <c r="A14" s="21">
-        <v>44607</v>
+        <v>44635</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="20" t="s">
@@ -1680,7 +1685,7 @@
     </row>
     <row r="15" spans="1:5" ht="21" customHeight="1">
       <c r="A15" s="14">
-        <v>44613</v>
+        <v>44642</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="20" t="s">
@@ -1695,7 +1700,7 @@
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
       <c r="A16" s="14">
-        <v>44614</v>
+        <v>44643</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="20" t="s">
@@ -1710,7 +1715,7 @@
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1">
       <c r="A17" s="14">
-        <v>44620</v>
+        <v>44648</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="20" t="s">
@@ -1724,11 +1729,19 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>44649</v>
+      </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1">
       <c r="A19" s="11"/>
@@ -1788,7 +1801,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="19">
         <f>SUM(E9:E25)</f>
-        <v>9000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1798,21 +1811,21 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="E8 E22:E25">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26 E19:E21 E9:E16">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/KintoBackup/【交通】劉春杉.xlsx
+++ b/KintoBackup/【交通】劉春杉.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LIUCHUNSHAN/Desktop/Sam/TechnologyStack/KintoBackup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LIUCHUNSHAN/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5433ECA-0336-E243-9B46-BA0B0C063D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553E171B-EB0A-D348-AB75-20DBC587FF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10560" yWindow="500" windowWidth="15960" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>　　　　　　　　氏名：　劉春杉</t>
   </si>
@@ -82,7 +82,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　2022　年　3　月分経費</t>
+    <t>　　　2022　年　4　月分経費</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -295,12 +295,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1510,7 +1505,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.25" customHeight="1"/>
@@ -1595,7 +1590,7 @@
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1">
       <c r="A9" s="11">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="20" t="s">
@@ -1610,7 +1605,7 @@
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1">
       <c r="A10" s="11">
-        <v>44622</v>
+        <v>44655</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="20" t="s">
@@ -1625,7 +1620,7 @@
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1">
       <c r="A11" s="11">
-        <v>44627</v>
+        <v>44656</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="20" t="s">
@@ -1640,7 +1635,7 @@
     </row>
     <row r="12" spans="1:5" ht="21" customHeight="1">
       <c r="A12" s="14">
-        <v>44628</v>
+        <v>44662</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="20" t="s">
@@ -1655,7 +1650,7 @@
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1">
       <c r="A13" s="14">
-        <v>44634</v>
+        <v>44663</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="20" t="s">
@@ -1670,7 +1665,7 @@
     </row>
     <row r="14" spans="1:5" ht="21" customHeight="1">
       <c r="A14" s="21">
-        <v>44635</v>
+        <v>44669</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="20" t="s">
@@ -1685,7 +1680,7 @@
     </row>
     <row r="15" spans="1:5" ht="21" customHeight="1">
       <c r="A15" s="14">
-        <v>44642</v>
+        <v>44670</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="20" t="s">
@@ -1700,7 +1695,7 @@
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
       <c r="A16" s="14">
-        <v>44643</v>
+        <v>44676</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="20" t="s">
@@ -1715,7 +1710,7 @@
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1">
       <c r="A17" s="14">
-        <v>44648</v>
+        <v>44677</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="20" t="s">
@@ -1729,19 +1724,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1">
-      <c r="A18" s="14">
-        <v>44649</v>
-      </c>
+      <c r="A18" s="14"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="13">
-        <v>1000</v>
-      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1">
       <c r="A19" s="11"/>
@@ -1801,7 +1788,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="19">
         <f>SUM(E9:E25)</f>
-        <v>10000</v>
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
@@ -1811,12 +1798,12 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="E8 E22:E25">
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26 E19:E21 E9:E16">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
